--- a/data/export/entity.xlsx
+++ b/data/export/entity.xlsx
@@ -1543,7 +1543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="true">
+  <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:K143"/>
@@ -1589,7 +1589,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>260500000</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -1659,7 +1659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>39292600</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>32</v>
       </c>
@@ -1729,7 +1729,7 @@
         <v>1237401020</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
@@ -1764,7 +1764,7 @@
         <v>21128224</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>40</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>253755000</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>44</v>
       </c>
@@ -1834,7 +1834,7 @@
         <v>751076982.87</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>48</v>
       </c>
@@ -1869,7 +1869,7 @@
         <v>829164752.06</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>51</v>
       </c>
@@ -1904,7 +1904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>55</v>
       </c>
@@ -1939,7 +1939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>59</v>
       </c>
@@ -1974,7 +1974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>62</v>
       </c>
@@ -2009,7 +2009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>66</v>
       </c>
@@ -2044,7 +2044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>69</v>
       </c>
@@ -2079,7 +2079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>73</v>
       </c>
@@ -2114,7 +2114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>76</v>
       </c>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>79</v>
       </c>
@@ -2184,7 +2184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>83</v>
       </c>
@@ -2219,7 +2219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>85</v>
       </c>
@@ -2254,7 +2254,7 @@
         <v>246808194.8</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>89</v>
       </c>
@@ -2289,7 +2289,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>93</v>
       </c>
@@ -2324,7 +2324,7 @@
         <v>461052603.4</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>97</v>
       </c>
@@ -2359,7 +2359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>99</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>354170928.95</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>102</v>
       </c>
@@ -2429,7 +2429,7 @@
         <v>50000000</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>106</v>
       </c>
@@ -2464,7 +2464,7 @@
         <v>91995923.29</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>108</v>
       </c>
@@ -2499,7 +2499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>111</v>
       </c>
@@ -2534,7 +2534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>114</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>117</v>
       </c>
@@ -2604,7 +2604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>121</v>
       </c>
@@ -2639,7 +2639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>124</v>
       </c>
@@ -2674,7 +2674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>126</v>
       </c>
@@ -2709,7 +2709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>130</v>
       </c>
@@ -2744,7 +2744,7 @@
         <v>91664785</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>132</v>
       </c>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>135</v>
       </c>
@@ -2814,7 +2814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>139</v>
       </c>
@@ -2849,7 +2849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>143</v>
       </c>
@@ -2884,7 +2884,7 @@
         <v>34166666.67</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>147</v>
       </c>
@@ -2919,7 +2919,7 @@
         <v>100000000</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>150</v>
       </c>
@@ -2954,7 +2954,7 @@
         <v>17037176.04</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>153</v>
       </c>
@@ -2989,7 +2989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>156</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>159</v>
       </c>
@@ -3059,7 +3059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>161</v>
       </c>
@@ -3094,7 +3094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>164</v>
       </c>
@@ -3129,7 +3129,7 @@
         <v>390610000</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>167</v>
       </c>
@@ -3164,7 +3164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>170</v>
       </c>
@@ -3199,7 +3199,7 @@
         <v>80000000</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>173</v>
       </c>
@@ -3269,7 +3269,7 @@
         <v>52706595</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
         <v>180</v>
       </c>
@@ -3304,7 +3304,7 @@
         <v>1274657083.33</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
         <v>182</v>
       </c>
@@ -3339,7 +3339,7 @@
         <v>16197530</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
         <v>185</v>
       </c>
@@ -3374,7 +3374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
         <v>188</v>
       </c>
@@ -3409,7 +3409,7 @@
         <v>37704000</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
         <v>191</v>
       </c>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
         <v>194</v>
       </c>
@@ -3479,7 +3479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
         <v>197</v>
       </c>
@@ -3514,7 +3514,7 @@
         <v>774239437</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
         <v>199</v>
       </c>
@@ -3549,7 +3549,7 @@
         <v>5000000</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
         <v>202</v>
       </c>
@@ -3584,7 +3584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
         <v>204</v>
       </c>
@@ -3619,7 +3619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
         <v>205</v>
       </c>
@@ -3654,7 +3654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
         <v>207</v>
       </c>
@@ -3689,7 +3689,7 @@
         <v>9000000</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
         <v>209</v>
       </c>
@@ -3724,7 +3724,7 @@
         <v>571350000</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
         <v>212</v>
       </c>
@@ -3759,7 +3759,7 @@
         <v>9387720</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
         <v>215</v>
       </c>
@@ -3794,7 +3794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
         <v>217</v>
       </c>
@@ -3829,7 +3829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
         <v>220</v>
       </c>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
         <v>222</v>
       </c>
@@ -3899,7 +3899,7 @@
         <v>9388923</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
         <v>224</v>
       </c>
@@ -3934,7 +3934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
         <v>227</v>
       </c>
@@ -3969,7 +3969,7 @@
         <v>357067768.74</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
         <v>229</v>
       </c>
@@ -4004,7 +4004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
         <v>231</v>
       </c>
@@ -4039,7 +4039,7 @@
         <v>831700000</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
         <v>233</v>
       </c>
@@ -4074,7 +4074,7 @@
         <v>118975948</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
         <v>235</v>
       </c>
@@ -4109,7 +4109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
         <v>238</v>
       </c>
@@ -4144,7 +4144,7 @@
         <v>256480000</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
         <v>241</v>
       </c>
@@ -4179,7 +4179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
         <v>244</v>
       </c>
@@ -4214,7 +4214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
         <v>246</v>
       </c>
@@ -4249,7 +4249,7 @@
         <v>540325391.55</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
         <v>248</v>
       </c>
@@ -4284,7 +4284,7 @@
         <v>299000000</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
         <v>250</v>
       </c>
@@ -4319,7 +4319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
         <v>253</v>
       </c>
@@ -4354,7 +4354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
         <v>256</v>
       </c>
@@ -4389,7 +4389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
         <v>259</v>
       </c>
@@ -4424,7 +4424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
         <v>262</v>
       </c>
@@ -4459,7 +4459,7 @@
         <v>164650488</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
         <v>265</v>
       </c>
@@ -4491,7 +4491,7 @@
         <v>35074102</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
         <v>267</v>
       </c>
@@ -4526,7 +4526,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
         <v>270</v>
       </c>
@@ -4561,7 +4561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
         <v>273</v>
       </c>
@@ -4596,7 +4596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
         <v>276</v>
       </c>
@@ -4631,7 +4631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
         <v>279</v>
       </c>
@@ -4666,7 +4666,7 @@
         <v>264430050</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
         <v>282</v>
       </c>
@@ -4701,7 +4701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
         <v>285</v>
       </c>
@@ -4736,7 +4736,7 @@
         <v>178229166.67</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
         <v>287</v>
       </c>
@@ -4771,7 +4771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
         <v>289</v>
       </c>
@@ -4806,7 +4806,7 @@
         <v>9999042.27</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
         <v>291</v>
       </c>
@@ -4841,7 +4841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
         <v>294</v>
       </c>
@@ -4876,7 +4876,7 @@
         <v>8650000</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
         <v>296</v>
       </c>
@@ -4911,7 +4911,7 @@
         <v>200000000</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
         <v>299</v>
       </c>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
         <v>301</v>
       </c>
@@ -4981,7 +4981,7 @@
         <v>17479625</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
         <v>303</v>
       </c>
@@ -5016,7 +5016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
         <v>305</v>
       </c>
@@ -5051,7 +5051,7 @@
         <v>12512509</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
         <v>307</v>
       </c>
@@ -5086,7 +5086,7 @@
         <v>99846649</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
         <v>310</v>
       </c>
@@ -5121,7 +5121,7 @@
         <v>89997436</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
         <v>313</v>
       </c>
@@ -5156,7 +5156,7 @@
         <v>218000000</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
         <v>315</v>
       </c>
@@ -5191,7 +5191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
         <v>318</v>
       </c>
@@ -5226,7 +5226,7 @@
         <v>134357000</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
         <v>320</v>
       </c>
@@ -5261,7 +5261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
         <v>322</v>
       </c>
@@ -5296,7 +5296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
         <v>325</v>
       </c>
@@ -5331,7 +5331,7 @@
         <v>9900000</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
         <v>328</v>
       </c>
@@ -5366,7 +5366,7 @@
         <v>9526603.26</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
         <v>330</v>
       </c>
@@ -5401,7 +5401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
         <v>332</v>
       </c>
@@ -5436,7 +5436,7 @@
         <v>25000000</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
         <v>334</v>
       </c>
@@ -5471,7 +5471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
         <v>336</v>
       </c>
@@ -5506,7 +5506,7 @@
         <v>19423832</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
         <v>339</v>
       </c>
@@ -5541,7 +5541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
         <v>341</v>
       </c>
@@ -5576,7 +5576,7 @@
         <v>390500000</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
         <v>343</v>
       </c>
@@ -5611,7 +5611,7 @@
         <v>76840530</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
         <v>345</v>
       </c>
@@ -5646,7 +5646,7 @@
         <v>15212400</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
         <v>348</v>
       </c>
@@ -5681,7 +5681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
         <v>350</v>
       </c>
@@ -5716,7 +5716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
         <v>352</v>
       </c>
@@ -5751,7 +5751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
         <v>354</v>
       </c>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
         <v>356</v>
       </c>
@@ -5821,7 +5821,7 @@
         <v>157626076</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
         <v>358</v>
       </c>
@@ -5856,7 +5856,7 @@
         <v>240100000</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
         <v>360</v>
       </c>
@@ -5891,7 +5891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
         <v>362</v>
       </c>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
         <v>364</v>
       </c>
@@ -5961,7 +5961,7 @@
         <v>39916589</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
         <v>367</v>
       </c>
@@ -5996,7 +5996,7 @@
         <v>22953000</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
         <v>370</v>
       </c>
@@ -6031,7 +6031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
         <v>373</v>
       </c>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
         <v>375</v>
       </c>
@@ -6101,7 +6101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
         <v>378</v>
       </c>
@@ -6136,7 +6136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
         <v>381</v>
       </c>
@@ -6171,7 +6171,7 @@
         <v>1224636139</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
         <v>383</v>
       </c>
@@ -6206,7 +6206,7 @@
         <v>249157393.63</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
         <v>385</v>
       </c>
@@ -6241,7 +6241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
         <v>387</v>
       </c>
@@ -6276,7 +6276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
         <v>389</v>
       </c>
@@ -6311,7 +6311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
         <v>392</v>
       </c>
@@ -6346,7 +6346,7 @@
         <v>63354359</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
         <v>394</v>
       </c>
@@ -6381,7 +6381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
         <v>396</v>
       </c>
@@ -6416,7 +6416,7 @@
         <v>1143787592</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
         <v>398</v>
       </c>
@@ -6451,7 +6451,7 @@
         <v>135531918</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
         <v>400</v>
       </c>
@@ -6486,7 +6486,7 @@
         <v>65304153</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
         <v>402</v>
       </c>
@@ -6521,7 +6521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
         <v>404</v>
       </c>
@@ -6557,13 +6557,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K143">
-    <filterColumn colId="7">
-      <filters>
-        <filter val=" Medium, Small"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:K143"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/data/export/entity.xlsx
+++ b/data/export/entity.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
   <fileVersion appName="Calc"/>
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Sheet 1'!$A$1:$K$143</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Sheet 1'!$A$1:$K$162</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="455">
   <si>
     <t xml:space="preserve">Entity</t>
   </si>
@@ -58,6 +58,30 @@
     <t xml:space="preserve">FA Financing</t>
   </si>
   <si>
+    <t xml:space="preserve">ACTED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FALSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Effectiveness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Medium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Public</t>
+  </si>
+  <si>
     <t xml:space="preserve">Acumen</t>
   </si>
   <si>
@@ -67,21 +91,9 @@
     <t xml:space="preserve">United States</t>
   </si>
   <si>
-    <t xml:space="preserve">FALSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">International</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Effectiveness</t>
-  </si>
-  <si>
     <t xml:space="preserve">B.09</t>
   </si>
   <si>
-    <t xml:space="preserve"> Medium</t>
-  </si>
-  <si>
     <t xml:space="preserve">Private</t>
   </si>
   <si>
@@ -100,9 +112,6 @@
     <t xml:space="preserve"> Small</t>
   </si>
   <si>
-    <t xml:space="preserve">Public</t>
-  </si>
-  <si>
     <t xml:space="preserve">ADA_Morocco</t>
   </si>
   <si>
@@ -163,9 +172,6 @@
     <t xml:space="preserve">Agence Française de Developpement</t>
   </si>
   <si>
-    <t xml:space="preserve">France</t>
-  </si>
-  <si>
     <t xml:space="preserve">Accredited</t>
   </si>
   <si>
@@ -190,6 +196,21 @@
     <t xml:space="preserve">B.40</t>
   </si>
   <si>
+    <t xml:space="preserve">APIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agence de Promotion des Investissements Agricoles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tunisia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Micro</t>
+  </si>
+  <si>
     <t xml:space="preserve">ARIS</t>
   </si>
   <si>
@@ -202,6 +223,18 @@
     <t xml:space="preserve">B.38</t>
   </si>
   <si>
+    <t xml:space="preserve">ArmSwissBank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARMSWISSBANK Closed Joint Stock Company</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armenia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Execution</t>
+  </si>
+  <si>
     <t xml:space="preserve">AWB</t>
   </si>
   <si>
@@ -211,6 +244,18 @@
     <t xml:space="preserve">Regional</t>
   </si>
   <si>
+    <t xml:space="preserve">Banco Promerica CR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Banco Promerica de Costa Rica, Sociedad Anónima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Costa Rica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.42</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bancoldex</t>
   </si>
   <si>
@@ -220,9 +265,6 @@
     <t xml:space="preserve">Colombia</t>
   </si>
   <si>
-    <t xml:space="preserve">Execution</t>
-  </si>
-  <si>
     <t xml:space="preserve">BANOBRAS</t>
   </si>
   <si>
@@ -241,9 +283,6 @@
     <t xml:space="preserve">Cook Islands</t>
   </si>
   <si>
-    <t xml:space="preserve"> Micro</t>
-  </si>
-  <si>
     <t xml:space="preserve">BDP-S.A.M.</t>
   </si>
   <si>
@@ -253,6 +292,15 @@
     <t xml:space="preserve">Bolivia (Plurinational State of)</t>
   </si>
   <si>
+    <t xml:space="preserve">BIDV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joint Stock Commercial Bank for Investment and Development of Vietnam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viet Nam</t>
+  </si>
+  <si>
     <t xml:space="preserve">BNDA</t>
   </si>
   <si>
@@ -274,6 +322,12 @@
     <t xml:space="preserve">B.23</t>
   </si>
   <si>
+    <t xml:space="preserve">BNI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Banque Nationale d'Investissement</t>
+  </si>
+  <si>
     <t xml:space="preserve">BNP_Paribas</t>
   </si>
   <si>
@@ -292,6 +346,15 @@
     <t xml:space="preserve">B.14</t>
   </si>
   <si>
+    <t xml:space="preserve">BRD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Development Bank of Rwanda (B.R.D) Plc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rwanda</t>
+  </si>
+  <si>
     <t xml:space="preserve">BTFEC</t>
   </si>
   <si>
@@ -310,45 +373,48 @@
     <t xml:space="preserve">Central American Bank for Economic Integration</t>
   </si>
   <si>
+    <t xml:space="preserve">Honduras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CACIB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crédit Agricole Corporate and Investment Bank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corporación Andina de Fomento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venezuela (Bolivarian Republic of)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAMCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camco Management Limited</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCCCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caribbean Community Climate Change Centre</t>
+  </si>
+  <si>
     <t xml:space="preserve">Belize</t>
   </si>
   <si>
-    <t xml:space="preserve">B.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CACIB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crédit Agricole Corporate and Investment Bank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corporación Andina de Fomento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Venezuela (Bolivarian Republic of)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAMCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Camco Management Limited</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCCCC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caribbean Community Climate Change Centre</t>
-  </si>
-  <si>
     <t xml:space="preserve">CDB</t>
   </si>
   <si>
@@ -394,330 +460,381 @@
     <t xml:space="preserve">Caixa Economica Federal</t>
   </si>
   <si>
+    <t xml:space="preserve">CGIAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CGIAR System Organization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">China_CDM_Fund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">China Clean Development Mechanism Fund Management Center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Former AE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conservation International Foundation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIFI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corporación Interamericana para el Financiamiento de Infraestructura, S.A.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Center for Implementation of Investment Projects within the Committee for Environmental Protection under the government of the Republic of Tajikistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tajikistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corporación Nacional para el Desarrollo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uruguay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COFIDES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compañia Española de Financiación del Desarrollo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRDB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRDB Bank Plc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanzania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Centre de Suivi Ecologique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senegal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CVDB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cities and Villages Development Bank (Jordan)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jordan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Development Bank of Jamaica Limited</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jamaica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBN_Namibia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Development Bank of Namibia Limited</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namibia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBN_Nigeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Development Bank of Nigeria Plc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Development Bank of the Philippines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Development Bank of Southern Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Development Bank of Zambia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zambia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DeutscheBank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deutsche Bank AktienGesellschaft AG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DFC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Development Finance Corporation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DFCCBank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DFCC Bank PLC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sri Lanka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOE_ATG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Department of Environment, Ministry of Health and Environment, Government of Antigua and Barbuda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antigua and Barbuda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Small</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EBID </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECOWAS Bank for Investment and Development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EBRD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">European Bank for Reconstruction and Development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecobank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecobank Ghana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EIB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">European Investment Bank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luxembourg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EIF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Environmental Investment Fund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Environmental Management Authority</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enabel (formerly Belgian Technical Cooperation - Cooperation Technique Belge)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belgium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EPF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Environment Protection Fund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lao People's Democratic Republic (the)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EPIU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Environmental Project Implementation Unit, State Agency of the Ministry of Environment, Armenia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Food and Agriculture Organization of the United Nations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FDB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fiji Development Bank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fiji</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FECO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foreign Environmental Cooperation Center of the Ministry of Ecology and Environment of China (formerly Foreign Economic Cooperation Office)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fonds d’Intervention pour l’Environnement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burkina Faso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Findeter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIRCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fonds Interprofessionnel pour la Recherche et le Conseil Agricoles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FMCN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fondo Mexicano para la Conservación de la Naturaleza A.C.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FMO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nederlandse Financierings-Maatschappij voor Ontwikkelingslanden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Netherlands (the)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FNEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fonds National pour L’Environnement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FondoAccion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fondo para la Acción Ambiental y la Niñez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSMDB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Federated States of Micronesia Development Bank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Micronesia (Federated States of)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funbio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fundo Brasileiro para a Biodiversidade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FundacionAvina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fundación Avina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FYNSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finanzas Y Negocios Servicios Financieros Limitada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GEDF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JSC Georgian Energy Development Fund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Georgia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GIZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deutsche Gesellschaft fuer Internationale Zusammenarbeit (GIZ) GmbH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HSBC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HSBC Holdings plc and its subsidiaries</t>
+  </si>
+  <si>
     <t xml:space="preserve">AMA 1st Draft Sent</t>
   </si>
   <si>
-    <t xml:space="preserve">CGIAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CGIAR System Organization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">China_CDM_Fund</t>
-  </si>
-  <si>
-    <t xml:space="preserve">China Clean Development Mechanism Fund Management Center</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Former AE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conservation International Foundation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIFI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corporación Interamericana para el Financiamiento de Infraestructura, S.A.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIIP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Center for Implementation of Investment Projects within the Committee for Environmental Protection under the government of the Republic of Tajikistan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tajikistan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corporación Nacional para el Desarrollo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uruguay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COFIDES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compañia Española de Financiación del Desarrollo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRDB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRDB Bank Plc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tanzania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Centre de Suivi Ecologique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Senegal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CVDB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cities and Villages Development Bank (Jordan)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jordan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DBJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Development Bank of Jamaica Limited</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jamaica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DBN_Nigeria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Development Bank of Nigeria Plc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DBP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Development Bank of the Philippines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DBSA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Development Bank of Southern Africa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Africa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DBZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Development Bank of Zambia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zambia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DeutscheBank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deutsche Bank AktienGesellschaft AG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Germany</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DFCCBank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DFCC Bank PLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sri Lanka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOE_ATG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Department of Environment, Ministry of Health and Environment, Government of Antigua and Barbuda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antigua and Barbuda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Small</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EBRD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">European Bank for Reconstruction and Development</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ecobank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ecobank Ghana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ghana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EIB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">European Investment Bank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luxembourg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EIF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Environmental Investment Fund</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Namibia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enabel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enabel (formerly Belgian Technical Cooperation - Cooperation Technique Belge)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belgium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EPIU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Environmental Project Implementation Unit, State Agency of the Ministry of Environment, Armenia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Armenia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FAO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Food and Agriculture Organization of the United Nations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FDB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fiji Development Bank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fiji</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FECO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Foreign Environmental Cooperation Center of the Ministry of Ecology and Environment of China (formerly Foreign Economic Cooperation Office)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Findeter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FIRCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fonds Interprofessionnel pour la Recherche et le Conseil Agricoles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FMCN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fondo Mexicano para la Conservación de la Naturaleza A.C.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FMO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nederlandse Financierings-Maatschappij voor Ontwikkelingslanden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Netherlands (the)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FNEC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fonds National pour L’Environnement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FondoAccion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fondo para la Acción Ambiental y la Niñez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FSMDB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Federated States of Micronesia Development Bank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Micronesia (Federated States of)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Funbio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fundo Brasileiro para a Biodiversidade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FundacionAvina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fundación Avina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FYNSA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finanzas Y Negocios Servicios Financieros Limitada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GIZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deutsche Gesellschaft fuer Internationale Zusammenarbeit (GIZ) GmbH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HSBC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HSBC Holdings plc and its subsidiaries</t>
-  </si>
-  <si>
     <t xml:space="preserve">IDB</t>
   </si>
   <si>
@@ -781,9 +898,6 @@
     <t xml:space="preserve">Instituto Interamericano de Cooperación para la Agricultura</t>
   </si>
   <si>
-    <t xml:space="preserve">Costa Rica</t>
-  </si>
-  <si>
     <t xml:space="preserve">IOC</t>
   </si>
   <si>
@@ -835,15 +949,21 @@
     <t xml:space="preserve">Pakistan</t>
   </si>
   <si>
+    <t xml:space="preserve">JSC DBK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Development Bank of Kazakhstan Joint Stock Company</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kazakhstan</t>
+  </si>
+  <si>
     <t xml:space="preserve">JSCTBC</t>
   </si>
   <si>
     <t xml:space="preserve">JSC TBC Bank</t>
   </si>
   <si>
-    <t xml:space="preserve">Georgia</t>
-  </si>
-  <si>
     <t xml:space="preserve">JSIF</t>
   </si>
   <si>
@@ -946,13 +1066,19 @@
     <t xml:space="preserve">Ministry of Finance and Economic Management, Cook Islands</t>
   </si>
   <si>
+    <t xml:space="preserve">MFEM_VUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ministry of Finance and Economic Management of the Government of Vanuatu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanuatu</t>
+  </si>
+  <si>
     <t xml:space="preserve">MOE_Rwanda</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Environment (formerly Ministry of Natural Resources of Rwanda)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rwanda</t>
   </si>
   <si>
     <t xml:space="preserve">MoFEC</t>
@@ -1040,9 +1166,6 @@
     <t xml:space="preserve">Sahara and Sahel Observatory</t>
   </si>
   <si>
-    <t xml:space="preserve">Tunisia</t>
-  </si>
-  <si>
     <t xml:space="preserve">PACT</t>
   </si>
   <si>
@@ -1112,6 +1235,15 @@
     <t xml:space="preserve">SK Securities, Co., Ltd.</t>
   </si>
   <si>
+    <t xml:space="preserve">SLDB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Lucia Development Bank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Lucia</t>
+  </si>
+  <si>
     <t xml:space="preserve">SMBC</t>
   </si>
   <si>
@@ -1136,6 +1268,12 @@
     <t xml:space="preserve">Samoa</t>
   </si>
   <si>
+    <t xml:space="preserve">TDB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eastern and Southern African Trade and Development Bank</t>
+  </si>
+  <si>
     <t xml:space="preserve">TDBM</t>
   </si>
   <si>
@@ -1145,6 +1283,15 @@
     <t xml:space="preserve">Mongolia</t>
   </si>
   <si>
+    <t xml:space="preserve">TenureFacility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International Land and Forest Tenure Facility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweden</t>
+  </si>
+  <si>
     <t xml:space="preserve">Terra Global</t>
   </si>
   <si>
@@ -1197,9 +1344,6 @@
   </si>
   <si>
     <t xml:space="preserve">Vietnam Development Bank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viet Nam</t>
   </si>
   <si>
     <t xml:space="preserve">WFP</t>
@@ -1320,17 +1464,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1546,13 +1686,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K143"/>
+  <dimension ref="A1:K162"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1594,343 +1734,343 @@
         <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="I2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>260500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="J3" s="1" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K3" s="1" t="n">
-        <v>0</v>
+        <v>260500000</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J4" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1" t="n">
-        <v>39292600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="H5" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J5" s="1" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="K5" s="1" t="n">
-        <v>1237401020</v>
+        <v>39292600</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="I6" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J6" s="1" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="K6" s="1" t="n">
-        <v>21128224</v>
+        <v>1696401020</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="H7" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J7" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K7" s="1" t="n">
-        <v>253755000</v>
+        <v>21128224</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="H8" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J8" s="1" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K8" s="1" t="n">
-        <v>751076982.87</v>
+        <v>253755000</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="G9" s="1" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J9" s="1" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K9" s="1" t="n">
-        <v>829164752.06</v>
+        <v>814970871.42</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="D10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F10" s="1" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J10" s="1" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K10" s="1" t="n">
-        <v>0</v>
+        <v>831977252.06</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="D11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="H11" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J11" s="1" t="n">
         <v>0</v>
@@ -1941,31 +2081,31 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="D12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="I12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J12" s="1" t="n">
         <v>0</v>
@@ -1985,22 +2125,22 @@
         <v>64</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="H13" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J13" s="1" t="n">
         <v>0</v>
@@ -2020,22 +2160,22 @@
         <v>68</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J14" s="1" t="n">
         <v>0</v>
@@ -2046,31 +2186,31 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J15" s="1" t="n">
         <v>0</v>
@@ -2090,22 +2230,22 @@
         <v>75</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J16" s="1" t="n">
         <v>0</v>
@@ -2116,31 +2256,31 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J17" s="1" t="n">
         <v>0</v>
@@ -2151,31 +2291,31 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J18" s="1" t="n">
         <v>0</v>
@@ -2192,25 +2332,25 @@
         <v>84</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J19" s="1" t="n">
         <v>0</v>
@@ -2221,37 +2361,37 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J20" s="1" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1" t="n">
-        <v>246808194.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2265,92 +2405,92 @@
         <v>91</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J21" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1" t="n">
-        <v>10000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="D22" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J22" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1" t="n">
-        <v>461052603.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="D23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="H23" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J23" s="1" t="n">
         <v>0</v>
@@ -2367,130 +2507,130 @@
         <v>100</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J24" s="1" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1" t="n">
-        <v>354170928.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="C25" s="1" t="s">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="D25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F25" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>105</v>
+        <v>27</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J25" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1" t="n">
-        <v>50000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="H26" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J26" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K26" s="1" t="n">
-        <v>91995923.29</v>
+        <v>299218327.55</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="D27" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="F27" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="H27" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J27" s="1" t="n">
         <v>0</v>
@@ -2501,37 +2641,37 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="D28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>113</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J28" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" s="1" t="n">
-        <v>0</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2542,60 +2682,60 @@
         <v>115</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>28</v>
+        <v>116</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J29" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K29" s="1" t="n">
-        <v>0</v>
+        <v>461052603.4</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F30" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J30" s="1" t="n">
         <v>0</v>
@@ -2606,107 +2746,107 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="D31" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J31" s="1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K31" s="1" t="n">
-        <v>0</v>
+        <v>354170928.95</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="D32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F32" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G32" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H32" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="J32" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" s="1" t="n">
-        <v>0</v>
+        <v>50000000</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>53</v>
+        <v>129</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>128</v>
+        <v>15</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>129</v>
+        <v>46</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J33" s="1" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K33" s="1" t="n">
-        <v>0</v>
+        <v>116522592.29</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2717,60 +2857,60 @@
         <v>131</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J34" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K34" s="1" t="n">
-        <v>91664785</v>
+        <v>50853743</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="D35" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E35" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H35" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="I35" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J35" s="1" t="n">
         <v>0</v>
@@ -2781,31 +2921,31 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>137</v>
+        <v>31</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>138</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J36" s="1" t="n">
         <v>0</v>
@@ -2825,22 +2965,22 @@
         <v>141</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>142</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J37" s="1" t="n">
         <v>0</v>
@@ -2857,165 +2997,165 @@
         <v>144</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>145</v>
+        <v>97</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>146</v>
+        <v>27</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J38" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" s="1" t="n">
-        <v>34166666.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>149</v>
+        <v>12</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>120</v>
+        <v>27</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J39" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" s="1" t="n">
-        <v>100000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G40" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40" s="1" t="s">
+      <c r="H40" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H40" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="I40" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J40" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K40" s="1" t="n">
-        <v>17037176.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>155</v>
+        <v>21</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J41" s="1" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K41" s="1" t="n">
-        <v>0</v>
+        <v>195814056</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>142</v>
+        <v>65</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J42" s="1" t="n">
         <v>0</v>
@@ -3026,31 +3166,31 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G43" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="H43" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J43" s="1" t="n">
         <v>0</v>
@@ -3061,31 +3201,31 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="D44" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>163</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J44" s="1" t="n">
         <v>0</v>
@@ -3105,127 +3245,127 @@
         <v>166</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>31</v>
+        <v>167</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J45" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K45" s="1" t="n">
-        <v>390610000</v>
+        <v>37962962.96</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J46" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46" s="1" t="n">
-        <v>0</v>
+        <v>100000000</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J47" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K47" s="1" t="n">
-        <v>80000000</v>
+        <v>18084640.05</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>142</v>
+        <v>65</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J48" s="1" t="n">
         <v>0</v>
@@ -3236,37 +3376,37 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>129</v>
+        <v>163</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>179</v>
+        <v>38</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J49" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K49" s="1" t="n">
-        <v>52706595</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3277,66 +3417,66 @@
         <v>181</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>104</v>
+        <v>182</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J50" s="1" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K50" s="1" t="n">
-        <v>1274657083.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>184</v>
+        <v>45</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>82</v>
+        <v>159</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J51" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51" s="1" t="n">
-        <v>16197530</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3347,25 +3487,25 @@
         <v>186</v>
       </c>
       <c r="C52" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G52" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="H52" s="1" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J52" s="1" t="n">
         <v>0</v>
@@ -3385,28 +3525,28 @@
         <v>190</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J53" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K53" s="1" t="n">
-        <v>37704000</v>
+        <v>390610000</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3420,22 +3560,22 @@
         <v>193</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>82</v>
+        <v>187</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J54" s="1" t="n">
         <v>0</v>
@@ -3455,28 +3595,28 @@
         <v>196</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J55" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K55" s="1" t="n">
-        <v>0</v>
+        <v>80000000</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3487,31 +3627,31 @@
         <v>198</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J56" s="1" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="K56" s="1" t="n">
-        <v>774239437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3525,28 +3665,28 @@
         <v>201</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>129</v>
+        <v>163</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J57" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K57" s="1" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3557,60 +3697,60 @@
         <v>203</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>53</v>
+        <v>204</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>96</v>
+        <v>150</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>24</v>
+        <v>205</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J58" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K58" s="1" t="n">
-        <v>0</v>
+        <v>52706595</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J59" s="1" t="n">
         <v>0</v>
@@ -3621,171 +3761,171 @@
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>138</v>
+        <v>46</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J60" s="1" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K60" s="1" t="n">
-        <v>0</v>
+        <v>1288426759.25</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>68</v>
+        <v>212</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J61" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K61" s="1" t="n">
-        <v>9000000</v>
+        <v>16197530</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E62" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E62" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F62" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J62" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K62" s="1" t="n">
-        <v>571350000</v>
+        <v>231481481.48</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>214</v>
+        <v>182</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J63" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K63" s="1" t="n">
-        <v>9387720</v>
+        <v>37704000</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>64</v>
+        <v>220</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J64" s="1" t="n">
         <v>0</v>
@@ -3796,31 +3936,31 @@
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J65" s="1" t="n">
         <v>0</v>
@@ -3831,31 +3971,31 @@
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>81</v>
+        <v>226</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J66" s="1" t="n">
         <v>0</v>
@@ -3866,136 +4006,136 @@
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>134</v>
+        <v>68</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E67" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H67" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F67" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="I67" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J67" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K67" s="1" t="n">
-        <v>9388923</v>
+        <v>9493842</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>226</v>
+        <v>141</v>
       </c>
       <c r="D68" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J68" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="E68" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J68" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="K68" s="1" t="n">
-        <v>0</v>
+        <v>1087640232</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>172</v>
+        <v>233</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J69" s="1" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="K69" s="1" t="n">
-        <v>357067768.74</v>
+        <v>2600000</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>31</v>
+        <v>117</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J70" s="1" t="n">
         <v>0</v>
@@ -4006,101 +4146,101 @@
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>13</v>
+        <v>238</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F71" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G71" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G71" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="H71" s="1" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J71" s="1" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K71" s="1" t="n">
-        <v>831700000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J72" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K72" s="1" t="n">
-        <v>118975948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>237</v>
+        <v>52</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J73" s="1" t="n">
         <v>0</v>
@@ -4111,206 +4251,206 @@
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>240</v>
+        <v>82</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>116</v>
+        <v>42</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J74" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K74" s="1" t="n">
-        <v>256480000</v>
+        <v>34000000</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>23</v>
+        <v>106</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J75" s="1" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K75" s="1" t="n">
-        <v>0</v>
+        <v>571350000</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J76" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K76" s="1" t="n">
-        <v>0</v>
+        <v>17987720</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>119</v>
+        <v>79</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J77" s="1" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K77" s="1" t="n">
-        <v>540325391.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>13</v>
+        <v>254</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>31</v>
+        <v>135</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J78" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K78" s="1" t="n">
-        <v>299000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>252</v>
+        <v>97</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>163</v>
+        <v>27</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J79" s="1" t="n">
         <v>0</v>
@@ -4321,66 +4461,66 @@
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>255</v>
+        <v>155</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E80" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H80" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F80" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="I80" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J80" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K80" s="1" t="n">
-        <v>0</v>
+        <v>9388923</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J81" s="1" t="n">
         <v>0</v>
@@ -4391,31 +4531,31 @@
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J82" s="1" t="n">
         <v>0</v>
@@ -4426,168 +4566,171 @@
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>264</v>
+        <v>196</v>
       </c>
       <c r="D83" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E83" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E83" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F83" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J83" s="1" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="K83" s="1" t="n">
-        <v>164650488</v>
+        <v>471537990.91</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>261</v>
+        <v>125</v>
       </c>
       <c r="D84" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E84" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E84" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F84" s="1" t="s">
-        <v>16</v>
+        <v>269</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J84" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K84" s="1" t="n">
-        <v>35074102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>269</v>
+        <v>21</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J85" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K85" s="1" t="n">
-        <v>10000000</v>
+        <v>993852791</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>272</v>
+        <v>21</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>163</v>
+        <v>27</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J86" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K86" s="1" t="n">
-        <v>0</v>
+        <v>118975948</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>158</v>
+        <v>276</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>275</v>
+        <v>187</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J87" s="1" t="n">
         <v>0</v>
@@ -4598,101 +4741,101 @@
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>105</v>
+        <v>138</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J88" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K88" s="1" t="n">
-        <v>0</v>
+        <v>256480000</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>16</v>
+        <v>269</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J89" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K89" s="1" t="n">
-        <v>264430050</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>284</v>
-      </c>
       <c r="D90" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>105</v>
+        <v>142</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J90" s="1" t="n">
         <v>0</v>
@@ -4709,31 +4852,31 @@
         <v>286</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>172</v>
+        <v>141</v>
       </c>
       <c r="D91" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E91" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E91" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F91" s="1" t="s">
-        <v>128</v>
+        <v>49</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J91" s="1" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="K91" s="1" t="n">
-        <v>178229166.67</v>
+        <v>783394279.15</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4744,31 +4887,31 @@
         <v>288</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>281</v>
+        <v>21</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>163</v>
+        <v>34</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J92" s="1" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K92" s="1" t="n">
-        <v>0</v>
+        <v>644000000</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4779,31 +4922,31 @@
         <v>290</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>23</v>
+        <v>187</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J93" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K93" s="1" t="n">
-        <v>9999042.27</v>
+        <v>23149717</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4814,25 +4957,25 @@
         <v>292</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>152</v>
+        <v>293</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>293</v>
+        <v>159</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J94" s="1" t="n">
         <v>0</v>
@@ -4849,445 +4992,442 @@
         <v>295</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>187</v>
+        <v>296</v>
       </c>
       <c r="D95" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E95" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E95" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F95" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>39</v>
+        <v>159</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J95" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K95" s="1" t="n">
-        <v>8650000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D96" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E96" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E96" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F96" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J96" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K96" s="1" t="n">
-        <v>200000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>28</v>
+        <v>302</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>163</v>
+        <v>34</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J97" s="1" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K97" s="1" t="n">
-        <v>0</v>
+        <v>164650488</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>219</v>
+        <v>299</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>116</v>
+        <v>15</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J98" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K98" s="1" t="n">
-        <v>17479625</v>
+        <v>96539495</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>46</v>
+        <v>307</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>138</v>
+        <v>42</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J99" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K99" s="1" t="n">
-        <v>0</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>71</v>
+        <v>310</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J100" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K100" s="1" t="n">
-        <v>12512509</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>309</v>
+        <v>264</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>43</v>
+        <v>187</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J101" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K101" s="1" t="n">
-        <v>99846649</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>312</v>
+        <v>179</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>31</v>
+        <v>315</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J102" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K102" s="1" t="n">
-        <v>89997436</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>261</v>
+        <v>318</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J103" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K103" s="1" t="n">
-        <v>218000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J104" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K104" s="1" t="n">
-        <v>0</v>
+        <v>264430050</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>243</v>
+        <v>324</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>43</v>
+        <v>126</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J105" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K105" s="1" t="n">
-        <v>134357000</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>321</v>
+        <v>325</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>326</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>68</v>
+        <v>196</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>65</v>
+        <v>149</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>163</v>
+        <v>22</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J106" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K106" s="1" t="n">
-        <v>0</v>
+        <v>193587962.96</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>120</v>
+        <v>187</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J107" s="1" t="n">
         <v>0</v>
@@ -5298,171 +5438,171 @@
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>327</v>
+        <v>37</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J108" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K108" s="1" t="n">
-        <v>9900000</v>
+        <v>9999042.27</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>278</v>
+        <v>173</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>31</v>
+        <v>333</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J109" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K109" s="1" t="n">
-        <v>9526603.26</v>
+        <v>27112268.52</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>38</v>
+        <v>215</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J110" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K110" s="1" t="n">
-        <v>0</v>
+        <v>8650000</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>269</v>
+        <v>338</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G111" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I111" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="H111" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I111" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="J111" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K111" s="1" t="n">
-        <v>25000000</v>
+        <v>200000000</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="C112" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H112" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D112" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H112" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="I112" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J112" s="1" t="n">
         <v>0</v>
@@ -5473,66 +5613,66 @@
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>338</v>
+        <v>254</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E113" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H113" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F113" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G113" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H113" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="I113" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J113" s="1" t="n">
         <v>2</v>
       </c>
       <c r="K113" s="1" t="n">
-        <v>19423832</v>
+        <v>17479625</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="G114" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I114" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="H114" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I114" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="J114" s="1" t="n">
         <v>0</v>
@@ -5543,206 +5683,206 @@
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J115" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K115" s="1" t="n">
-        <v>390500000</v>
+        <v>52494884</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>240</v>
+        <v>349</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>129</v>
+        <v>60</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J116" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K116" s="1" t="n">
-        <v>76840530</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>347</v>
+        <v>109</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J117" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K117" s="1" t="n">
-        <v>15212400</v>
+        <v>99846649</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>46</v>
+        <v>354</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J118" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K118" s="1" t="n">
-        <v>0</v>
+        <v>89997436</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J119" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K119" s="1" t="n">
-        <v>0</v>
+        <v>218000000</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>264</v>
+        <v>359</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>142</v>
+        <v>98</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J120" s="1" t="n">
         <v>0</v>
@@ -5753,276 +5893,276 @@
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>166</v>
+        <v>282</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J121" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K121" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>154357000</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>298</v>
+        <v>82</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>120</v>
+        <v>187</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J122" s="1" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K122" s="1" t="n">
-        <v>157626076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>243</v>
+        <v>366</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J123" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K123" s="1" t="n">
-        <v>240100000</v>
+        <v>9783456</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>281</v>
+        <v>369</v>
       </c>
       <c r="D124" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E124" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E124" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F124" s="1" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>113</v>
+        <v>27</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J124" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K124" s="1" t="n">
-        <v>0</v>
+        <v>9900000</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>261</v>
+        <v>318</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>163</v>
+        <v>34</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J125" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K125" s="1" t="n">
-        <v>0</v>
+        <v>9526603.26</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>366</v>
+        <v>41</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J126" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K126" s="1" t="n">
-        <v>39916589</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>369</v>
+        <v>307</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J127" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K127" s="1" t="n">
-        <v>22953000</v>
+        <v>25000000</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>372</v>
+        <v>41</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J128" s="1" t="n">
         <v>0</v>
@@ -6033,66 +6173,66 @@
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>58</v>
+        <v>150</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J129" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K129" s="1" t="n">
-        <v>0</v>
+        <v>19423832</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>377</v>
+        <v>27</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J130" s="1" t="n">
         <v>0</v>
@@ -6103,136 +6243,136 @@
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>380</v>
+        <v>21</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J131" s="1" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K131" s="1" t="n">
-        <v>0</v>
+        <v>390500000</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>13</v>
+        <v>279</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G132" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H132" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H132" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="I132" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J132" s="1" t="n">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="K132" s="1" t="n">
-        <v>1224636139</v>
+        <v>76840530</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>278</v>
+        <v>388</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J133" s="1" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K133" s="1" t="n">
-        <v>249157393.63</v>
+        <v>15212400</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="C134" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D134" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D134" s="1" t="s">
+      <c r="E134" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E134" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F134" s="1" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J134" s="1" t="n">
         <v>0</v>
@@ -6243,31 +6383,31 @@
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>22</v>
+        <v>324</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>293</v>
+        <v>117</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J135" s="1" t="n">
         <v>0</v>
@@ -6278,31 +6418,31 @@
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>391</v>
+        <v>302</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="G136" s="1" t="s">
         <v>163</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J136" s="1" t="n">
         <v>0</v>
@@ -6313,206 +6453,206 @@
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>119</v>
+        <v>190</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J137" s="1" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K137" s="1" t="n">
-        <v>63354359</v>
+        <v>40104179</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>264</v>
+        <v>338</v>
       </c>
       <c r="D138" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E138" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E138" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F138" s="1" t="s">
-        <v>128</v>
+        <v>15</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>31</v>
+        <v>142</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J138" s="1" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K138" s="1" t="n">
-        <v>0</v>
+        <v>257095258</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>13</v>
+        <v>282</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>43</v>
+        <v>138</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J139" s="1" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="K139" s="1" t="n">
-        <v>1143787592</v>
+        <v>265097890</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C140" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D140" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D140" s="1" t="s">
+      <c r="E140" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E140" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F140" s="1" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J140" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K140" s="1" t="n">
-        <v>135531918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>372</v>
+        <v>405</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J141" s="1" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K141" s="1" t="n">
-        <v>65304153</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>243</v>
+        <v>299</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>120</v>
+        <v>187</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J142" s="1" t="n">
         <v>0</v>
@@ -6523,41 +6663,706 @@
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>169</v>
+        <v>410</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="F143" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I143" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J143" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="K143" s="1" t="n">
+        <v>57809898</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I144" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J144" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K144" s="1" t="n">
+        <v>22953000</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I145" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J145" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J146" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I147" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J147" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G148" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G143" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="H143" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I143" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J143" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K143" s="1" t="n">
+      <c r="H148" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I148" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J148" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I149" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J149" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H150" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I150" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J150" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I151" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J151" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="K151" s="1" t="n">
+        <v>1364041091</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H152" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I152" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J152" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="K152" s="1" t="n">
+        <v>368271309.63</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I153" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J153" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H154" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I154" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J154" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H155" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I155" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J155" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H156" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I156" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J156" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K156" s="1" t="n">
+        <v>128255127</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H157" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I157" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J157" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H158" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I158" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J158" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="K158" s="1" t="n">
+        <v>1288287592</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H159" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I159" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J159" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="K159" s="1" t="n">
+        <v>135531918</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H160" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I160" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J160" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="K160" s="1" t="n">
+        <v>65304153</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H161" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I161" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J161" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="H162" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I162" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J162" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" s="1" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K143"/>
+  <autoFilter ref="A1:K162"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
